--- a/data/trans_camb/P8_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 12,04</t>
+          <t>4,45; 12,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 13,51</t>
+          <t>5,17; 13,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 14,52</t>
+          <t>5,11; 13,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 10,72</t>
+          <t>3,38; 11,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 10,28</t>
+          <t>1,68; 10,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,06; 16,53</t>
+          <t>8,42; 16,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 10,55</t>
+          <t>5,04; 10,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 10,41</t>
+          <t>4,34; 10,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,15; 15,08</t>
+          <t>9,07; 15,33</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,33; 54,68</t>
+          <t>17,18; 54,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,34; 60,69</t>
+          <t>20,2; 62,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,82; 66,33</t>
+          <t>20,42; 64,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 26,99</t>
+          <t>7,77; 28,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 26,01</t>
+          <t>3,87; 26,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,53; 41,71</t>
+          <t>19,6; 41,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,78; 32,51</t>
+          <t>14,18; 33,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,17; 31,9</t>
+          <t>12,53; 32,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,26; 46,33</t>
+          <t>25,47; 47,91</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,94</t>
+          <t>0,63; 3,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,99</t>
+          <t>1,54; 5,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,68; 15,78</t>
+          <t>6,65; 15,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,7</t>
+          <t>1,38; 5,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,83</t>
+          <t>3,47; 7,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,78</t>
+          <t>3,14; 8,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,44</t>
+          <t>1,42; 4,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,75</t>
+          <t>3,02; 5,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 11,28</t>
+          <t>6,02; 11,33</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,63; 79,82</t>
+          <t>8,97; 78,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,43; 104,13</t>
+          <t>23,49; 105,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>103,87; 293,41</t>
+          <t>106,52; 288,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,39; 73,82</t>
+          <t>14,36; 79,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,85; 105,19</t>
+          <t>36,91; 107,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,64; 103,62</t>
+          <t>35,95; 109,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,83; 70,08</t>
+          <t>18,42; 64,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,73; 89,82</t>
+          <t>39,33; 88,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>74,73; 162,5</t>
+          <t>77,99; 167,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,77</t>
+          <t>-0,89; 6,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 5,18</t>
+          <t>-1,1; 5,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 4,09</t>
+          <t>-1,41; 4,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,53</t>
+          <t>-4,07; 3,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,18</t>
+          <t>-4,25; 3,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,44</t>
+          <t>-3,53; 2,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 4,03</t>
+          <t>-1,37; 3,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 3,06</t>
+          <t>-1,69; 3,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,72</t>
+          <t>-1,44; 2,83</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 152,27</t>
+          <t>-15,06; 175,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 141,24</t>
+          <t>-20,71; 151,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 119,91</t>
+          <t>-22,67; 123,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 46,71</t>
+          <t>-37,56; 51,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,39; 45,32</t>
+          <t>-39,59; 38,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 36,54</t>
+          <t>-31,86; 42,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 70,79</t>
+          <t>-18,13; 63,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 56,1</t>
+          <t>-21,62; 51,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 51,71</t>
+          <t>-17,43; 49,85</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,05</t>
+          <t>1,79; 5,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,36</t>
+          <t>1,15; 4,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,54</t>
+          <t>3,21; 9,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,85</t>
+          <t>1,89; 6,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 3,27</t>
+          <t>-0,89; 3,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,34</t>
+          <t>-2,1; 2,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,05</t>
+          <t>2,42; 5,1</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,3</t>
+          <t>0,73; 3,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,16</t>
+          <t>1,37; 4,87</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,62; 48,32</t>
+          <t>14,92; 49,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,23; 41,44</t>
+          <t>9,19; 41,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,13; 88,34</t>
+          <t>26,89; 91,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,57; 28,69</t>
+          <t>8,14; 29,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 16,06</t>
+          <t>-3,95; 15,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 11,58</t>
+          <t>-9,23; 12,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,32; 32,26</t>
+          <t>14,0; 31,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,22; 21,2</t>
+          <t>4,47; 21,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,51; 31,96</t>
+          <t>7,88; 30,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 12,02</t>
+          <t>4,3; 12,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 13,51</t>
+          <t>5,01; 13,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 13,95</t>
+          <t>5,57; 14,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 11,24</t>
+          <t>3,21; 11,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 10,32</t>
+          <t>1,42; 10,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,42; 16,33</t>
+          <t>8,51; 16,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,04; 10,72</t>
+          <t>4,93; 10,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 10,59</t>
+          <t>4,62; 10,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,07; 15,33</t>
+          <t>9,48; 15,55</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,18; 54,89</t>
+          <t>17,04; 55,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,2; 62,19</t>
+          <t>19,51; 62,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,42; 64,7</t>
+          <t>21,97; 64,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,77; 28,42</t>
+          <t>7,32; 27,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 26,01</t>
+          <t>3,29; 25,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,6; 41,52</t>
+          <t>19,58; 40,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,18; 33,62</t>
+          <t>13,87; 32,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,53; 32,7</t>
+          <t>13,22; 33,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,47; 47,91</t>
+          <t>26,91; 48,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,98</t>
+          <t>0,56; 3,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,02</t>
+          <t>1,64; 5,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 15,94</t>
+          <t>6,59; 16,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,66</t>
+          <t>1,33; 5,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,92</t>
+          <t>3,62; 7,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 8,0</t>
+          <t>3,31; 7,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,12</t>
+          <t>1,65; 4,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 5,71</t>
+          <t>3,21; 5,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,33</t>
+          <t>6,09; 11,51</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,97; 78,75</t>
+          <t>7,88; 78,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,49; 105,01</t>
+          <t>25,74; 112,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>106,52; 288,2</t>
+          <t>106,0; 317,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,36; 79,58</t>
+          <t>14,31; 75,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,91; 107,18</t>
+          <t>37,55; 104,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,95; 109,07</t>
+          <t>35,66; 106,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,42; 64,35</t>
+          <t>20,41; 65,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,33; 88,69</t>
+          <t>42,67; 91,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>77,99; 167,17</t>
+          <t>79,14; 165,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 6,14</t>
+          <t>-0,49; 5,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 5,23</t>
+          <t>-0,83; 5,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 4,15</t>
+          <t>-1,04; 4,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,65</t>
+          <t>-4,67; 2,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 3,08</t>
+          <t>-4,36; 2,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 2,75</t>
+          <t>-3,64; 2,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,57</t>
+          <t>-1,47; 3,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 3,01</t>
+          <t>-1,7; 3,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 2,83</t>
+          <t>-1,42; 2,71</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 175,71</t>
+          <t>-11,18; 152,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 151,91</t>
+          <t>-15,63; 138,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 123,6</t>
+          <t>-17,64; 122,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,56; 51,91</t>
+          <t>-42,14; 44,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,59; 38,99</t>
+          <t>-40,48; 42,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,86; 42,75</t>
+          <t>-31,81; 36,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 63,31</t>
+          <t>-19,02; 62,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 51,87</t>
+          <t>-21,12; 54,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 49,85</t>
+          <t>-17,89; 47,9</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,16</t>
+          <t>1,69; 5,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,34</t>
+          <t>1,08; 4,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,74</t>
+          <t>3,19; 9,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,12</t>
+          <t>1,76; 5,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,27</t>
+          <t>-0,73; 3,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,38</t>
+          <t>-2,12; 2,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,1</t>
+          <t>2,33; 5,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,43</t>
+          <t>0,7; 3,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,87</t>
+          <t>1,46; 5,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,92; 49,86</t>
+          <t>14,19; 47,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,19; 41,79</t>
+          <t>8,83; 40,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,89; 91,57</t>
+          <t>26,69; 90,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,14; 29,94</t>
+          <t>7,86; 29,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 15,8</t>
+          <t>-3,25; 16,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 12,06</t>
+          <t>-9,49; 11,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,0; 31,94</t>
+          <t>13,8; 31,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,47; 21,86</t>
+          <t>4,02; 20,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,88; 30,72</t>
+          <t>8,57; 31,28</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 12,14</t>
+          <t>3,65; 12,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,01; 13,51</t>
+          <t>4,71; 13,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,57; 14,12</t>
+          <t>5,37; 14,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 11,16</t>
+          <t>3,02; 10,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 10,04</t>
+          <t>1,65; 10,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,51; 16,16</t>
+          <t>8,06; 16,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 10,69</t>
+          <t>4,86; 10,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 10,83</t>
+          <t>4,24; 10,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,48; 15,55</t>
+          <t>9,15; 15,08</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,04; 55,61</t>
+          <t>14,33; 54,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,51; 62,21</t>
+          <t>18,34; 60,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,97; 64,34</t>
+          <t>19,82; 66,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 27,69</t>
+          <t>6,78; 26,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 25,55</t>
+          <t>3,96; 26,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,58; 40,71</t>
+          <t>18,53; 41,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,87; 32,88</t>
+          <t>13,78; 32,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,22; 33,59</t>
+          <t>12,17; 31,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,91; 48,34</t>
+          <t>26,26; 46,33</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,89</t>
+          <t>0,55; 3,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,18</t>
+          <t>1,56; 4,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 16,33</t>
+          <t>6,68; 15,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,65</t>
+          <t>1,17; 5,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,74</t>
+          <t>3,48; 7,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,88</t>
+          <t>2,81; 7,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,29</t>
+          <t>1,61; 4,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,86</t>
+          <t>3,06; 5,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 11,51</t>
+          <t>5,81; 11,28</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,88; 78,78</t>
+          <t>8,63; 79,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,74; 112,0</t>
+          <t>24,43; 104,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>106,0; 317,78</t>
+          <t>103,87; 293,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,31; 75,1</t>
+          <t>11,39; 73,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,55; 104,51</t>
+          <t>35,85; 105,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,66; 106,11</t>
+          <t>32,64; 103,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,41; 65,8</t>
+          <t>21,83; 70,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,67; 91,31</t>
+          <t>40,73; 89,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>79,14; 165,34</t>
+          <t>74,73; 162,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,65</t>
+          <t>-0,85; 5,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 5,14</t>
+          <t>-1,13; 5,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 4,1</t>
+          <t>-1,25; 4,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 2,92</t>
+          <t>-4,13; 3,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,96</t>
+          <t>-4,13; 3,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,49</t>
+          <t>-3,92; 2,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,59</t>
+          <t>-1,37; 4,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 3,11</t>
+          <t>-1,42; 3,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,71</t>
+          <t>-1,39; 2,72</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 152,43</t>
+          <t>-14,38; 152,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 138,69</t>
+          <t>-17,67; 141,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 122,65</t>
+          <t>-18,82; 119,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,14; 44,8</t>
+          <t>-39,89; 46,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,48; 42,1</t>
+          <t>-39,39; 45,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,81; 36,29</t>
+          <t>-33,82; 36,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 62,21</t>
+          <t>-17,34; 70,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,12; 54,77</t>
+          <t>-18,37; 56,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 47,9</t>
+          <t>-16,59; 51,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,01</t>
+          <t>1,59; 5,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,35</t>
+          <t>1,23; 4,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 9,85</t>
+          <t>3,17; 9,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,88</t>
+          <t>1,92; 5,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,35</t>
+          <t>-0,83; 3,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 2,39</t>
+          <t>-1,93; 2,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,03</t>
+          <t>2,43; 5,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,31</t>
+          <t>0,69; 3,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,0</t>
+          <t>1,44; 5,16</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,19; 47,72</t>
+          <t>13,62; 48,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,83; 40,99</t>
+          <t>10,23; 41,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,69; 90,26</t>
+          <t>27,13; 88,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,86; 29,22</t>
+          <t>8,57; 28,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 16,28</t>
+          <t>-3,66; 16,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 11,54</t>
+          <t>-8,72; 11,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,8; 31,65</t>
+          <t>14,32; 32,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,02; 20,77</t>
+          <t>4,22; 21,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,57; 31,28</t>
+          <t>8,51; 31,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,99</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,28</t>
+          <t>11,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,21</t>
+          <t>11,6</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 14,52</t>
+          <t>5,11; 14,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,06; 16,53</t>
+          <t>7,72; 16,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,15; 15,08</t>
+          <t>8,54; 14,43</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>41,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,55%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>34,46%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,82; 66,33</t>
+          <t>19,81; 66,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,53; 41,71</t>
+          <t>17,61; 40,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,26; 46,33</t>
+          <t>24,34; 44,07</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>16,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>10,6</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,68; 15,78</t>
+          <t>6,49; 35,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,78</t>
+          <t>0,01; 7,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 11,28</t>
+          <t>5,13; 25,93</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>167,65%</t>
+          <t>291,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,95%</t>
+          <t>54,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>109,59%</t>
+          <t>151,52%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>103,87; 293,41</t>
+          <t>109,47; 715,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,64; 103,62</t>
+          <t>1,55; 90,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>74,73; 162,5</t>
+          <t>71,48; 370,44</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,63</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 4,09</t>
+          <t>-1,34; 4,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,44</t>
+          <t>-4,04; 2,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,72</t>
+          <t>-1,5; 2,62</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>31,52%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,53%</t>
+          <t>-5,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>9,17%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 119,91</t>
+          <t>-20,2; 117,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 36,54</t>
+          <t>-35,27; 33,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 51,71</t>
+          <t>-18,25; 48,63</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>9,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>4,31</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,54</t>
+          <t>3,16; 27,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,34</t>
+          <t>-4,87; 1,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,16</t>
+          <t>0,95; 14,77</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>46,1%</t>
+          <t>85,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>-3,77%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>26,3%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,13; 88,34</t>
+          <t>27,84; 260,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 11,58</t>
+          <t>-22,62; 6,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,51; 31,96</t>
+          <t>5,79; 92,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 12,04</t>
+          <t>3,68; 11,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,71; 13,51</t>
+          <t>4,88; 13,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 14,6</t>
+          <t>5,3; 14,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 10,72</t>
+          <t>3,08; 10,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 10,28</t>
+          <t>1,87; 10,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 16,07</t>
+          <t>7,85; 16,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 10,55</t>
+          <t>4,86; 10,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 10,41</t>
+          <t>4,46; 10,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,54; 14,43</t>
+          <t>8,4; 14,43</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,33; 54,68</t>
+          <t>15,15; 54,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,34; 60,69</t>
+          <t>19,12; 59,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,81; 66,18</t>
+          <t>20,82; 64,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 26,99</t>
+          <t>6,97; 27,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 26,01</t>
+          <t>4,18; 25,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,61; 40,48</t>
+          <t>17,35; 40,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,78; 32,51</t>
+          <t>14,04; 32,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,17; 31,9</t>
+          <t>12,86; 32,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,34; 44,07</t>
+          <t>23,84; 44,87</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,94</t>
+          <t>0,59; 4,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,99</t>
+          <t>1,61; 4,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 35,83</t>
+          <t>6,47; 40,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,7</t>
+          <t>1,44; 5,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,83</t>
+          <t>3,34; 7,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 7,08</t>
+          <t>0,79; 6,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,44</t>
+          <t>1,55; 4,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,75</t>
+          <t>3,06; 5,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 25,93</t>
+          <t>5,38; 24,17</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,63; 79,82</t>
+          <t>7,3; 82,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,43; 104,13</t>
+          <t>23,75; 100,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>109,47; 715,24</t>
+          <t>106,01; 880,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,39; 73,82</t>
+          <t>15,11; 75,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,85; 105,19</t>
+          <t>34,01; 104,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 90,84</t>
+          <t>9,67; 87,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,83; 70,08</t>
+          <t>20,06; 66,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,73; 89,82</t>
+          <t>40,0; 90,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,48; 370,44</t>
+          <t>75,31; 362,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,77</t>
+          <t>-0,68; 5,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 5,18</t>
+          <t>-1,02; 5,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,06</t>
+          <t>-1,19; 4,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,53</t>
+          <t>-4,44; 3,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,18</t>
+          <t>-4,44; 3,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 2,25</t>
+          <t>-4,05; 2,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 4,03</t>
+          <t>-1,17; 3,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 3,06</t>
+          <t>-1,39; 3,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 2,62</t>
+          <t>-1,52; 2,42</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 152,27</t>
+          <t>-13,2; 168,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 141,24</t>
+          <t>-18,46; 141,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,2; 117,49</t>
+          <t>-19,42; 118,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,89; 46,71</t>
+          <t>-40,13; 48,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,39; 45,32</t>
+          <t>-39,87; 44,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 33,34</t>
+          <t>-34,6; 37,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 70,79</t>
+          <t>-14,58; 69,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 56,1</t>
+          <t>-17,52; 61,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 48,63</t>
+          <t>-18,46; 41,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,05</t>
+          <t>1,84; 5,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,36</t>
+          <t>1,05; 4,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,16; 27,66</t>
+          <t>3,17; 27,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,85</t>
+          <t>1,76; 5,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 3,27</t>
+          <t>-0,9; 3,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 1,38</t>
+          <t>-4,37; 1,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,05</t>
+          <t>2,26; 4,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,3</t>
+          <t>0,66; 3,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 14,77</t>
+          <t>0,85; 14,46</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,62; 48,32</t>
+          <t>15,18; 48,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,23; 41,44</t>
+          <t>8,67; 41,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,84; 260,79</t>
+          <t>27,72; 264,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,57; 28,69</t>
+          <t>8,02; 29,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 16,06</t>
+          <t>-3,93; 15,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 6,49</t>
+          <t>-19,93; 7,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,32; 32,26</t>
+          <t>12,81; 31,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,22; 21,2</t>
+          <t>3,87; 21,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,79; 92,45</t>
+          <t>5,01; 90,77</t>
         </is>
       </c>
     </row>
